--- a/Exams/Exam-03/Program_CheckList.xlsx
+++ b/Exams/Exam-03/Program_CheckList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\ServicesDevelopment\Exams\Exam-02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\ServicesDevelopment\Exams\Exam-03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052E2512-6811-4656-B3BA-FF12AC56DC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54315F9-EBA6-46B8-8B38-46C5D2475001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Creterio</t>
   </si>
@@ -53,22 +53,16 @@
     <t>NOTA</t>
   </si>
   <si>
-    <t>Compila sin Errores</t>
-  </si>
-  <si>
-    <t>Cumple con Clean Architecture (Plural,Metodos CRUD, Manejoa los errores)</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
     <t>Funciona y Cumple con el Objetivo (Tests = 78)</t>
   </si>
   <si>
     <t>Tests</t>
+  </si>
+  <si>
+    <t>Cumple con Clean Architecture  y usa Docker</t>
+  </si>
+  <si>
+    <t>Compila sin Errores ni Warnings</t>
   </si>
 </sst>
 </file>
@@ -164,12 +158,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -182,9 +175,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -194,7 +184,6 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -485,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -501,105 +490,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="9">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="8">
         <v>0.5</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="10">
         <v>0.5</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="16">
-        <f>SUM(C4:C5)</f>
-        <v>78</v>
-      </c>
-      <c r="C3" s="10">
-        <v>4</v>
-      </c>
-      <c r="D3" s="13">
-        <f>(C5*C3)/78</f>
-        <v>4</v>
-      </c>
-      <c r="E3" s="8"/>
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="15">
-        <v>0</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="2"/>
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="13">
+        <v>78</v>
+      </c>
+      <c r="C4" s="9">
+        <v>4</v>
+      </c>
+      <c r="D4" s="11">
+        <f>(B4*C4)/78</f>
+        <v>4</v>
+      </c>
+      <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="15">
-        <v>78</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="2"/>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="12">
+        <f>SUM(D2:D4)</f>
+        <v>5</v>
+      </c>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="14">
-        <f>SUM(D2:D6)</f>
-        <v>5</v>
-      </c>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3">
+  <conditionalFormatting sqref="B4">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>78</formula>
     </cfRule>

--- a/Exams/Exam-03/Program_CheckList.xlsx
+++ b/Exams/Exam-03/Program_CheckList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\ServicesDevelopment\Exams\Exam-03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFEB7BD-6FDA-43EC-BED4-8918F1A69486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5434C671-9CFC-4809-B247-EFDD8F58842E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-3984" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -488,7 +488,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,7 +542,7 @@
       </c>
       <c r="D3" s="13">
         <f>(C5*C3)/61</f>
-        <v>4</v>
+        <v>2.9508196721311477</v>
       </c>
       <c r="E3" s="8"/>
     </row>
@@ -552,7 +552,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="15">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="2"/>
@@ -563,7 +563,7 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="15">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="2"/>
@@ -589,7 +589,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="14">
         <f>SUM(D2:D6)</f>
-        <v>5</v>
+        <v>3.9508196721311477</v>
       </c>
       <c r="E7" s="7"/>
     </row>

--- a/Exams/Exam-03/Program_CheckList.xlsx
+++ b/Exams/Exam-03/Program_CheckList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\ServicesDevelopment\Exams\Exam-03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFEB7BD-6FDA-43EC-BED4-8918F1A69486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7A1F92-8CA4-4CBA-8815-5098541F7030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-3984" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -488,7 +488,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,7 +542,7 @@
       </c>
       <c r="D3" s="13">
         <f>(C5*C3)/61</f>
-        <v>4</v>
+        <v>2.2295081967213113</v>
       </c>
       <c r="E3" s="8"/>
     </row>
@@ -552,7 +552,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="15">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="2"/>
@@ -563,7 +563,7 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="15">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="2"/>
@@ -589,7 +589,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="14">
         <f>SUM(D2:D6)</f>
-        <v>5</v>
+        <v>3.2295081967213113</v>
       </c>
       <c r="E7" s="7"/>
     </row>

--- a/Exams/Exam-03/Program_CheckList.xlsx
+++ b/Exams/Exam-03/Program_CheckList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\ServicesDevelopment\Exams\Exam-03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7A1F92-8CA4-4CBA-8815-5098541F7030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAC2BC9-ACF3-44FF-96A2-ABC5A1096E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-3984" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -488,7 +488,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,7 +542,7 @@
       </c>
       <c r="D3" s="13">
         <f>(C5*C3)/61</f>
-        <v>2.2295081967213113</v>
+        <v>2.7540983606557377</v>
       </c>
       <c r="E3" s="8"/>
     </row>
@@ -552,7 +552,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="15">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="2"/>
@@ -563,7 +563,7 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="15">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="2"/>
@@ -589,7 +589,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="14">
         <f>SUM(D2:D6)</f>
-        <v>3.2295081967213113</v>
+        <v>3.7540983606557377</v>
       </c>
       <c r="E7" s="7"/>
     </row>

--- a/Exams/Exam-03/Program_CheckList.xlsx
+++ b/Exams/Exam-03/Program_CheckList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\ServicesDevelopment\Exams\Exam-03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFEB7BD-6FDA-43EC-BED4-8918F1A69486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FD3B7A-B582-4EB5-8EE3-2D8C96002D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-3984" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -488,7 +488,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,7 +526,7 @@
         <v>0.5</v>
       </c>
       <c r="D2" s="12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -542,7 +542,7 @@
       </c>
       <c r="D3" s="13">
         <f>(C5*C3)/61</f>
-        <v>4</v>
+        <v>3.9344262295081966</v>
       </c>
       <c r="E3" s="8"/>
     </row>
@@ -552,7 +552,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="2"/>
@@ -563,7 +563,7 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="15">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="2"/>
@@ -589,7 +589,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="14">
         <f>SUM(D2:D6)</f>
-        <v>5</v>
+        <v>4.4344262295081966</v>
       </c>
       <c r="E7" s="7"/>
     </row>

--- a/Exams/Exam-03/Program_CheckList.xlsx
+++ b/Exams/Exam-03/Program_CheckList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\ServicesDevelopment\Exams\Exam-03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFEB7BD-6FDA-43EC-BED4-8918F1A69486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0123B0F2-F282-411A-ADF5-EFA23D2AD84A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-3984" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -488,7 +488,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,7 +526,7 @@
         <v>0.5</v>
       </c>
       <c r="D2" s="12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -589,7 +589,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="14">
         <f>SUM(D2:D6)</f>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="E7" s="7"/>
     </row>

--- a/Exams/Exam-03/Program_CheckList.xlsx
+++ b/Exams/Exam-03/Program_CheckList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\ServicesDevelopment\Exams\Exam-03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFEB7BD-6FDA-43EC-BED4-8918F1A69486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4FAD8D-25F0-40E0-9DBE-5AFAF07ED900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-3984" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -488,7 +488,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,7 +542,7 @@
       </c>
       <c r="D3" s="13">
         <f>(C5*C3)/61</f>
-        <v>4</v>
+        <v>2.7540983606557377</v>
       </c>
       <c r="E3" s="8"/>
     </row>
@@ -552,7 +552,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="15">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="2"/>
@@ -563,7 +563,7 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="15">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="2"/>
@@ -589,7 +589,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="14">
         <f>SUM(D2:D6)</f>
-        <v>5</v>
+        <v>3.7540983606557377</v>
       </c>
       <c r="E7" s="7"/>
     </row>

--- a/Exams/Exam-03/Program_CheckList.xlsx
+++ b/Exams/Exam-03/Program_CheckList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\ServicesDevelopment\Exams\Exam-03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFEB7BD-6FDA-43EC-BED4-8918F1A69486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0821AED-DE5C-43E7-AFC4-2E919C698481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-3984" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -488,7 +488,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,7 +526,7 @@
         <v>0.5</v>
       </c>
       <c r="D2" s="12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -589,7 +589,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="14">
         <f>SUM(D2:D6)</f>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="E7" s="7"/>
     </row>

--- a/Exams/Exam-03/Program_CheckList.xlsx
+++ b/Exams/Exam-03/Program_CheckList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\ServicesDevelopment\Exams\Exam-03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFEB7BD-6FDA-43EC-BED4-8918F1A69486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8829E69-F023-4753-949C-8DC02B5B523D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-3984" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -488,7 +488,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,7 +526,7 @@
         <v>0.5</v>
       </c>
       <c r="D2" s="12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -589,7 +589,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="14">
         <f>SUM(D2:D6)</f>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="E7" s="7"/>
     </row>

--- a/Exams/Exam-03/Program_CheckList.xlsx
+++ b/Exams/Exam-03/Program_CheckList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\ServicesDevelopment\Exams\Exam-03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFEB7BD-6FDA-43EC-BED4-8918F1A69486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC6ED26-E627-440B-915A-88CA55110ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-3984" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -488,7 +488,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,7 +542,7 @@
       </c>
       <c r="D3" s="13">
         <f>(C5*C3)/61</f>
-        <v>4</v>
+        <v>3.4098360655737703</v>
       </c>
       <c r="E3" s="8"/>
     </row>
@@ -552,7 +552,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="15">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="2"/>
@@ -563,7 +563,7 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="15">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="2"/>
@@ -589,7 +589,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="14">
         <f>SUM(D2:D6)</f>
-        <v>5</v>
+        <v>4.4098360655737707</v>
       </c>
       <c r="E7" s="7"/>
     </row>

--- a/Exams/Exam-03/Program_CheckList.xlsx
+++ b/Exams/Exam-03/Program_CheckList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\ServicesDevelopment\Exams\Exam-03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7E9654-1E18-4E69-927B-13E1901A106C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C735B0-06EE-4561-9C3B-A6E33831F63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-3984" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -526,7 +526,7 @@
         <v>0.5</v>
       </c>
       <c r="D2" s="12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -589,7 +589,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="14">
         <f>SUM(D2:D6)</f>
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="E7" s="7"/>
     </row>

--- a/Exams/Exam-03/Program_CheckList.xlsx
+++ b/Exams/Exam-03/Program_CheckList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\ServicesDevelopment\Exams\Exam-03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFEB7BD-6FDA-43EC-BED4-8918F1A69486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0649A20-431A-4A4A-84B5-236DD378B13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-3984" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -488,7 +488,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,7 +526,7 @@
         <v>0.5</v>
       </c>
       <c r="D2" s="12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -589,7 +589,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="14">
         <f>SUM(D2:D6)</f>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="E7" s="7"/>
     </row>

--- a/Exams/Exam-03/Program_CheckList.xlsx
+++ b/Exams/Exam-03/Program_CheckList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\ServicesDevelopment\Exams\Exam-03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFEB7BD-6FDA-43EC-BED4-8918F1A69486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43426AF5-2F6A-4460-925C-62A759ED2372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-3984" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -488,7 +488,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,7 +542,7 @@
       </c>
       <c r="D3" s="13">
         <f>(C5*C3)/61</f>
-        <v>4</v>
+        <v>3.9344262295081966</v>
       </c>
       <c r="E3" s="8"/>
     </row>
@@ -552,7 +552,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="2"/>
@@ -563,7 +563,7 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="15">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="2"/>
@@ -589,7 +589,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="14">
         <f>SUM(D2:D6)</f>
-        <v>5</v>
+        <v>4.9344262295081966</v>
       </c>
       <c r="E7" s="7"/>
     </row>

--- a/Exams/Exam-03/Program_CheckList.xlsx
+++ b/Exams/Exam-03/Program_CheckList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\ServicesDevelopment\Exams\Exam-03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFEB7BD-6FDA-43EC-BED4-8918F1A69486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DDB25A-189F-441F-8C71-18209353BF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-3984" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -488,7 +488,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,7 +526,7 @@
         <v>0.5</v>
       </c>
       <c r="D2" s="12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -589,7 +589,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="14">
         <f>SUM(D2:D6)</f>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="E7" s="7"/>
     </row>

--- a/Exams/Exam-03/Program_CheckList.xlsx
+++ b/Exams/Exam-03/Program_CheckList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\ServicesDevelopment\Exams\Exam-03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFEB7BD-6FDA-43EC-BED4-8918F1A69486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978616E4-4E34-4343-BA24-162E50DE8915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-3984" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -488,7 +488,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,7 +542,7 @@
       </c>
       <c r="D3" s="13">
         <f>(C5*C3)/61</f>
-        <v>4</v>
+        <v>0.98360655737704916</v>
       </c>
       <c r="E3" s="8"/>
     </row>
@@ -552,7 +552,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="15">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="2"/>
@@ -563,7 +563,7 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="15">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="2"/>
@@ -589,7 +589,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="14">
         <f>SUM(D2:D6)</f>
-        <v>5</v>
+        <v>1.9836065573770492</v>
       </c>
       <c r="E7" s="7"/>
     </row>
